--- a/excel/HT17/Workbook5.xlsx
+++ b/excel/HT17/Workbook5.xlsx
@@ -10,7 +10,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$319</definedName>
     <definedName name="Årsvecka_38–_kursvecka_4" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Årsvecka_45_–_kursvecka_11" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Årsvecka_47_–_kursvecka_13" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="321">
   <si>
     <t>Må 11/9</t>
   </si>
@@ -60,12 +63,6 @@
     <t>08.00-09.00</t>
   </si>
   <si>
-    <t>F1: Fallstart urologi*</t>
-  </si>
-  <si>
-    <t>F2: Fallstart urologi*</t>
-  </si>
-  <si>
     <t>Grupprum 2, ing 30</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>11.15–12.15</t>
   </si>
   <si>
-    <t>E1: Fallstart urologi*</t>
-  </si>
-  <si>
-    <t>E2: Fallstart urologi*</t>
-  </si>
-  <si>
     <t>13.15–15.00</t>
   </si>
   <si>
@@ -111,18 +102,6 @@
     <t>08.00-16.00</t>
   </si>
   <si>
-    <t>E1+2: Introduktion njurmedicin*</t>
-  </si>
-  <si>
-    <t>E1+2: Seminarium njurmedicin*</t>
-  </si>
-  <si>
-    <t>E1+2 Kandidatmottagning enligt ssk schema*</t>
-  </si>
-  <si>
-    <t>F1+2 Klinisk tjänstgöring urologi enl ssk schema*</t>
-  </si>
-  <si>
     <t>Hisshallen ing 30, vån 6</t>
   </si>
   <si>
@@ -157,9 +136,6 @@
   </si>
   <si>
     <t>8.15–11.30</t>
-  </si>
-  <si>
-    <t>E1+2: Dialysundervisning*</t>
   </si>
   <si>
     <t>OscarII-dialysen</t>
@@ -184,9 +160,6 @@
     <t>8.00–16.00</t>
   </si>
   <si>
-    <t>E1+2: Kandidatmottagning enligt ssk schema*</t>
-  </si>
-  <si>
     <t>Må 25/9</t>
   </si>
   <si>
@@ -200,18 +173,6 @@
   </si>
   <si>
     <t>13.00–16.30</t>
-  </si>
-  <si>
-    <t>E1+2 Klinisk tjänstgöring urologi enl ssk schema*</t>
-  </si>
-  <si>
-    <t>F1+2 Introduktion njurmedicin*</t>
-  </si>
-  <si>
-    <t>F1+2: Seminarium njurmedicin*</t>
-  </si>
-  <si>
-    <t>F1+2 Kandidatmottagning enligt ssk schema*</t>
   </si>
   <si>
     <t xml:space="preserve">Enligt ssk schema </t>
@@ -259,9 +220,6 @@
     <t>To 28/9</t>
   </si>
   <si>
-    <t>F1+2: Dialysundervisning*</t>
-  </si>
-  <si>
     <t>Oscar II-dialysen</t>
   </si>
   <si>
@@ -271,28 +229,13 @@
     <t>9.00–11.00</t>
   </si>
   <si>
-    <t>F1+2: Kandidatmottagning enligt ssk schema*</t>
-  </si>
-  <si>
     <t>Må 2/10</t>
   </si>
   <si>
     <t>9.00–10.00</t>
   </si>
   <si>
-    <t>F1: Fallavslut urologi*</t>
-  </si>
-  <si>
-    <t>F2: Fallavslut urologi*</t>
-  </si>
-  <si>
     <t>10.15–11.15</t>
-  </si>
-  <si>
-    <t>E1: Fallavslut urologi*</t>
-  </si>
-  <si>
-    <t>E2: Fallavslut urologi*</t>
   </si>
   <si>
     <t>12.00–13.00</t>
@@ -400,12 +343,741 @@
       <t>Undervisningsrum 1 på röntgen,  ing 85, entréplan</t>
     </r>
   </si>
+  <si>
+    <t>Grp E1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp E1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp E2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp E1 Grp E2: Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp E1 Grp E2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp E1 Grp E2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp E1 Grp E2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t>Grp E1 Grp E2: Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp E1 Grp E2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp E2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp F1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp F1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp F2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp F1 Grp F2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp F1 Grp F2 Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp F1 Grp F2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp F1 Grp F2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp F1 Grp F2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t>Grp F1 Grp F2: Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp F2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Må 9/10</t>
+  </si>
+  <si>
+    <t>Ti 10/10</t>
+  </si>
+  <si>
+    <t>On 11/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rappesalen, ing 10</t>
+  </si>
+  <si>
+    <t>To 12/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fr 13/10</t>
+  </si>
+  <si>
+    <t>08.00-0.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Undervisningsrum 1 på röntgen,</t>
+  </si>
+  <si>
+    <t>ing 85, entréplan</t>
+  </si>
+  <si>
+    <t>Må 16/10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Ca 9.45–11.00</t>
+    </r>
+  </si>
+  <si>
+    <t>Förmaket, ing 70</t>
+  </si>
+  <si>
+    <t>Ti 17/10</t>
+  </si>
+  <si>
+    <t>Konferensrun, ing 50</t>
+  </si>
+  <si>
+    <t>On 18/10</t>
+  </si>
+  <si>
+    <t>Urinvägskateterskola (gäller Uppsalaplacerade under urologin)*</t>
+  </si>
+  <si>
+    <t>To 19/10</t>
+  </si>
+  <si>
+    <t>8.15–12.00</t>
+  </si>
+  <si>
+    <t>Fr 20/10</t>
+  </si>
+  <si>
+    <t>9.00-11.00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Enligt ssk schema</t>
+    </r>
+  </si>
+  <si>
+    <t>Njurmotagningen</t>
+  </si>
+  <si>
+    <t>Må 23/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ca 9.45-11.00</t>
+  </si>
+  <si>
+    <t>Ti 24/10</t>
+  </si>
+  <si>
+    <t>On 25/10</t>
+  </si>
+  <si>
+    <t>To 26/10</t>
+  </si>
+  <si>
+    <t>Fr 27/10</t>
+  </si>
+  <si>
+    <t>Må 30/10</t>
+  </si>
+  <si>
+    <t>Gertrud Olssonrummet, ing 10</t>
+  </si>
+  <si>
+    <t>Sälderummet, ing 10</t>
+  </si>
+  <si>
+    <t>Ti 31/10</t>
+  </si>
+  <si>
+    <t>Kjellbergsalen, ing 10</t>
+  </si>
+  <si>
+    <t>On 1/11</t>
+  </si>
+  <si>
+    <t>To 2/11</t>
+  </si>
+  <si>
+    <t>Fr 3/11</t>
+  </si>
+  <si>
+    <t>Må 6/11</t>
+  </si>
+  <si>
+    <t>09.00-09.15</t>
+  </si>
+  <si>
+    <t>Ti 7/11</t>
+  </si>
+  <si>
+    <t>Kronisk njursvikt</t>
+  </si>
+  <si>
+    <t>On 8/11</t>
+  </si>
+  <si>
+    <t>To 9/11</t>
+  </si>
+  <si>
+    <t>Fr 10/10</t>
+  </si>
+  <si>
+    <t>8.00–9.00</t>
+  </si>
+  <si>
+    <t>Österbergrummet, ing 10</t>
+  </si>
+  <si>
+    <t>Må 13/11</t>
+  </si>
+  <si>
+    <t>Ti 14/11</t>
+  </si>
+  <si>
+    <t>On 15/11</t>
+  </si>
+  <si>
+    <t>Konferensrum, ing 50 Njurmottagningen</t>
+  </si>
+  <si>
+    <t>Berit B Långström</t>
+  </si>
+  <si>
+    <t>To 16/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fr 17/11</t>
+  </si>
+  <si>
+    <t>Må 20/11</t>
+  </si>
+  <si>
+    <t>Ti 21/11</t>
+  </si>
+  <si>
+    <t>On 22/11</t>
+  </si>
+  <si>
+    <t>To 23/11</t>
+  </si>
+  <si>
+    <t>Fr 24/11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>9.00-11.00</t>
+    </r>
+  </si>
+  <si>
+    <t>Må 27/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.00–10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.15–11.15</t>
+  </si>
+  <si>
+    <t>Ti 28/11</t>
+  </si>
+  <si>
+    <t>On 29/11</t>
+  </si>
+  <si>
+    <t>Gullstrandsalen, ing 85</t>
+  </si>
+  <si>
+    <t>To 30/11</t>
+  </si>
+  <si>
+    <t>Fr 1/12</t>
+  </si>
+  <si>
+    <t>Må 4/12</t>
+  </si>
+  <si>
+    <t>Ti 5/12</t>
+  </si>
+  <si>
+    <t>On 6/12</t>
+  </si>
+  <si>
+    <t>To 7/12</t>
+  </si>
+  <si>
+    <t>Fr 8/12</t>
+  </si>
+  <si>
+    <t>Förläng till 12.00.</t>
+  </si>
+  <si>
+    <t>13.00–14.00</t>
+  </si>
+  <si>
+    <t>14.15–16.00</t>
+  </si>
+  <si>
+    <t>Må 11/12</t>
+  </si>
+  <si>
+    <t>13.00-16.30</t>
+  </si>
+  <si>
+    <t>Ti 12/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.15–11.00</t>
+  </si>
+  <si>
+    <t>On 13/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enligt ssk schema</t>
+  </si>
+  <si>
+    <t>Urologmottaningen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Berit B Långström</t>
+  </si>
+  <si>
+    <t>To 14/12</t>
+  </si>
+  <si>
+    <t>Fr 15/12</t>
+  </si>
+  <si>
+    <t>9.00–12.00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Njurmottagningen</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Enligt ssk schema</t>
+  </si>
+  <si>
+    <t>Må 18/12</t>
+  </si>
+  <si>
+    <t>12.00-13.00</t>
+  </si>
+  <si>
+    <t>Ti 19/12</t>
+  </si>
+  <si>
+    <t>9.15–10.00</t>
+  </si>
+  <si>
+    <t>On 20/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.00–9.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.00–15.45</t>
+  </si>
+  <si>
+    <t>Konferensrum, ing 30</t>
+  </si>
+  <si>
+    <t>To 21/12</t>
+  </si>
+  <si>
+    <t>Fr 22/12</t>
+  </si>
+  <si>
+    <t>9.00-10.00</t>
+  </si>
+  <si>
+    <t>10.15-12.00</t>
+  </si>
+  <si>
+    <t>13.00-14.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Undervisningsrum 1 på röntgen, ing 85, entréplan</t>
+  </si>
+  <si>
+    <t>STI (Uretrit/Cervicit, HSV och HPV, Syfilis Smittskyddslagen, Falldiskussion</t>
+  </si>
+  <si>
+    <t>Urinvägskateterskola* (gäller Uppsalaplacerade under urologin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.15-12.00 </t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Översiktsföreläsning njurmedicin</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Akut njursvikt</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Glomerulonefriter och vaskuliter</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Kronisk njursvikt</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Introduktion till urologi Benign urologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupp 10,11,12:Urologisk cancer </t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Furixologi</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Dietbehandling vid njursvikt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupp 10,11,12: Transplantation och etik </t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Interstitiella njursjukdomar</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Diabetes, renovaskulär hypertoni</t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Dugga njurmedicin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grupp 10,11,12: Hematuriseminarium </t>
+  </si>
+  <si>
+    <t>Grupp 10,11,12: Föreläsning akut urologi med bildvernissage</t>
+  </si>
+  <si>
+    <t>Grupp 10-12</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Introduktion</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Översiktsföreläsning njurmedicin</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Akut njursvikt</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Glomerulonefriter och vaskuliter</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Introduktion till urologi Benign urologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupp 1,2,3: Urologisk cancer  </t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Stenseminarium</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Furixologi</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Dietbehandling vid njursvikt</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Transplantation och etik</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Interstitiella njursjukdomar</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Diabetesnefropati, Renovaskulära njursjdomar</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Dugga njurmedicin</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Hematuri</t>
+  </si>
+  <si>
+    <t>Grupp 1,2,3: Föreläsning akut urologi med bildvernissage</t>
+  </si>
+  <si>
+    <t>Grupp 1-3</t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Introduktion</t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Översiktsföreläsning njurmedicin</t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Akut njursvikt</t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Glomerulonefriter och vaskuliter</t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Introduktion till urologi Benign urologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupp 4,5,6: Urologisk cancer  </t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Föreläsning akut urologi med bildvernissage</t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Hematuri och stenseminarium</t>
+  </si>
+  <si>
+    <t>Grupp 4,5,6: Furixologi</t>
+  </si>
+  <si>
+    <t>Grupp 4-6</t>
+  </si>
+  <si>
+    <t>Grp H1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp H1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp H2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp H2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp G1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp G1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp G2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp G2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp H1 Grp H2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp H1 Grp H2 Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp H1 Grp H2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp H1 Grp H2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp H1 Grp H2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t>Grp H1 Grp H2: Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp G1 Grp G2 Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp G1 Grp G2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp G1 Grp G2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp G1 Grp G2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t>Grp G1 Grp G2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp B1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp B1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp B2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp B2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp B1 Grp B2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp B1 Grp B2 Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp B1 Grp B2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp B1 Grp B2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp B1 Grp B2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grp B1 Grp B2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp A1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp A1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp A2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp A2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp A1 Grp A2: Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp A1 Grp A2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp A1 Grp A2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp A1 Grp A2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t>Grp A1 Grp A2: Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp A1 Grp A2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp C1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp C1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp C2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp C2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp C1 Grp C2: Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp C1 Grp C2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp C1 Grp C2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp C1 Grp C2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t>Grp C1 Grp C2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp D1: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grp D1: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp D2: Fallstart urologi*</t>
+  </si>
+  <si>
+    <t>Grupp Grp D1+Grp D2 Dietbehandling vid njursvikt</t>
+  </si>
+  <si>
+    <t>Grp D1+Grp D2 Transplantation och etik</t>
+  </si>
+  <si>
+    <t>Grp D2: Fallavslut urologi*</t>
+  </si>
+  <si>
+    <t>Grp D1+Grp D2 Interstitiella njursjukdomar</t>
+  </si>
+  <si>
+    <t>Grp D1+Grp D2 Diabetesnefropati och renovaskulära njursjukdomar</t>
+  </si>
+  <si>
+    <t>Grp D1+Grp D2 Dugga njurmedicin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Grp D1 Grp D2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp D1 Grp D2 Klinisk tjänstgöring urologi enl ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp D1 Grp D2 Introduktion njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp D1 Grp D2: Seminarium njurmedicin*</t>
+  </si>
+  <si>
+    <t>Grp D1 Grp D2 Kandidatmottagning enligt ssk schema*</t>
+  </si>
+  <si>
+    <t>Grp D1 Grp D2: Dialysundervisning*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -493,6 +1165,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -502,7 +1203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -595,8 +1296,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -610,8 +1486,40 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -682,20 +1590,217 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1025,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1040,7 +2145,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1053,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -1066,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -1079,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
@@ -1094,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
@@ -1107,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
@@ -1122,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>2</v>
@@ -1151,7 +2256,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>2</v>
@@ -1173,10 +2278,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="E12" s="18"/>
     </row>
@@ -1186,23 +2291,23 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="59" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="E14" s="18"/>
     </row>
@@ -1216,26 +2321,26 @@
     <row r="16" spans="1:5" ht="31" thickBot="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="8"/>
       <c r="B17" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="19"/>
     </row>
@@ -1249,13 +2354,13 @@
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" s="18"/>
     </row>
@@ -1270,162 +2375,162 @@
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="45">
       <c r="A22" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" ht="30">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="45">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" ht="31" thickBot="1">
+    <row r="25" spans="1:5" ht="46" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" ht="30">
       <c r="A26" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="1:5" ht="30">
+    <row r="27" spans="1:5" ht="45">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="31" thickBot="1">
+    <row r="28" spans="1:5" ht="46" thickBot="1">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="30">
       <c r="A29" s="17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30">
+    </row>
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="30">
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="45">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1444,70 +2549,70 @@
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:5" ht="32">
+    <row r="36" spans="1:5" ht="45">
       <c r="A36" s="8"/>
       <c r="B36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" ht="31" thickBot="1">
+    <row r="37" spans="1:5" ht="46" thickBot="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="1:5" ht="32">
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E38" s="21"/>
     </row>
-    <row r="39" spans="1:5" ht="31" thickBot="1">
+    <row r="39" spans="1:5" ht="46" thickBot="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E39" s="23"/>
     </row>
@@ -1515,62 +2620,62 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="30">
+    <row r="41" spans="1:5" ht="45">
       <c r="A41" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5" ht="45">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="30">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5" ht="45">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E44" s="8"/>
     </row>
@@ -1581,44 +2686,44 @@
       <c r="D45" s="4"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="30">
+    <row r="46" spans="1:5" ht="45">
       <c r="A46" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="31">
+    <row r="48" spans="1:5" ht="45">
       <c r="A48" s="8"/>
       <c r="B48" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -1629,57 +2734,57 @@
       <c r="D49" s="4"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="30">
+    <row r="50" spans="1:5" ht="45">
       <c r="A50" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" ht="31">
+    <row r="52" spans="1:5" ht="45">
       <c r="A52" s="8"/>
       <c r="B52" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" ht="45">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E53" s="8"/>
     </row>
@@ -1697,72 +2802,72 @@
       <c r="D55" s="10"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="30">
+    <row r="56" spans="1:5" ht="45">
       <c r="A56" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="33" thickBot="1">
+    <row r="58" spans="1:5" ht="46" thickBot="1">
       <c r="A58" s="8"/>
       <c r="B58" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:5" ht="30">
+    <row r="59" spans="1:5" ht="45">
       <c r="A59" s="17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:5" ht="31" thickBot="1">
+    <row r="60" spans="1:5" ht="46" thickBot="1">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E60" s="8"/>
     </row>
@@ -1770,72 +2875,72 @@
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="31" thickBot="1">
       <c r="A62" s="17" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="1:5" ht="31" thickBot="1">
       <c r="A63" s="3"/>
       <c r="B63" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" s="23"/>
     </row>
     <row r="64" spans="1:5" ht="31" thickBot="1">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E64" s="21"/>
     </row>
     <row r="65" spans="1:5" ht="31" thickBot="1">
       <c r="A65" s="3"/>
       <c r="B65" s="17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E65" s="23"/>
     </row>
     <row r="66" spans="1:5" ht="31" thickBot="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>2</v>
@@ -1845,10 +2950,10 @@
     <row r="67" spans="1:5" ht="31" thickBot="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>2</v>
@@ -1857,13 +2962,13 @@
     </row>
     <row r="68" spans="1:5" ht="44" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>2</v>
@@ -1880,10 +2985,10 @@
     <row r="70" spans="1:5" ht="31" thickBot="1">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>2</v>
@@ -1893,10 +2998,10 @@
     <row r="71" spans="1:5" ht="31" thickBot="1">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>2</v>
@@ -1905,13 +3010,13 @@
     </row>
     <row r="72" spans="1:5" ht="45">
       <c r="A72" s="17" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>2</v>
@@ -1928,70 +3033,2911 @@
     <row r="74" spans="1:5" ht="31" thickBot="1">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="16" thickBot="1">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" ht="75">
+    <row r="76" spans="1:5" ht="76" thickBot="1">
       <c r="A76" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5" ht="31" thickBot="1">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="1:5" ht="16" thickBot="1">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="30">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="17" t="s">
+      <c r="D77" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="1:5" ht="16" thickBot="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" ht="17" thickBot="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="31" thickBot="1">
+      <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="46" thickBot="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" ht="31" thickBot="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="46" thickBot="1">
+      <c r="A82" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="31" thickBot="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A84" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A85" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" ht="31" thickBot="1">
+      <c r="A86" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:6" ht="31" thickBot="1">
+      <c r="A87" s="53"/>
+      <c r="B87" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="76" thickBot="1">
+      <c r="A88" s="54"/>
+      <c r="B88" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" ht="31" thickBot="1">
+      <c r="A89" s="54"/>
+      <c r="B89" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" ht="30">
+      <c r="A90" s="27"/>
+      <c r="B90" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="31" thickBot="1">
+      <c r="A91" s="6"/>
+      <c r="B91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" ht="17" thickBot="1">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" s="55"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="30">
+      <c r="A93" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
+    </row>
+    <row r="94" spans="1:6" ht="45">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" s="58"/>
+      <c r="F94" s="37"/>
+    </row>
+    <row r="95" spans="1:6" ht="30">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="58"/>
+      <c r="F95" s="37"/>
+    </row>
+    <row r="96" spans="1:6" ht="30">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="58"/>
+      <c r="F96" s="37"/>
+    </row>
+    <row r="97" spans="1:6" ht="16" thickBot="1">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" spans="1:6" ht="30">
+      <c r="A98" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
+    </row>
+    <row r="99" spans="1:6" ht="30">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="58"/>
+      <c r="F99" s="37"/>
+    </row>
+    <row r="100" spans="1:6" ht="31" thickBot="1">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="59"/>
+      <c r="F100" s="38"/>
+    </row>
+    <row r="101" spans="1:6" ht="30">
+      <c r="A101" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="56"/>
+      <c r="F101" s="57"/>
+    </row>
+    <row r="102" spans="1:6" ht="30">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="58"/>
+      <c r="F102" s="37"/>
+    </row>
+    <row r="103" spans="1:6" ht="30">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="58"/>
+      <c r="F103" s="37"/>
+    </row>
+    <row r="104" spans="1:6" ht="45">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="58"/>
+      <c r="F104" s="37"/>
+    </row>
+    <row r="105" spans="1:6" ht="16" thickBot="1">
+      <c r="A105" s="3"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="38"/>
+    </row>
+    <row r="106" spans="1:6" ht="30">
+      <c r="A106" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="F106" s="57"/>
+    </row>
+    <row r="107" spans="1:6" ht="30">
+      <c r="A107" s="8"/>
+      <c r="B107" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="58"/>
+      <c r="F107" s="37"/>
+    </row>
+    <row r="108" spans="1:6" ht="31" thickBot="1">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="59"/>
+      <c r="F108" s="38"/>
+    </row>
+    <row r="109" spans="1:6" ht="30">
+      <c r="A109" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="60"/>
+      <c r="F109" s="61"/>
+    </row>
+    <row r="110" spans="1:6" ht="30">
+      <c r="A110" s="8"/>
+      <c r="B110" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="62"/>
+      <c r="F110" s="63"/>
+    </row>
+    <row r="111" spans="1:6" ht="16" thickBot="1">
+      <c r="A111" s="3"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="65"/>
+    </row>
+    <row r="112" spans="1:6" ht="17" thickBot="1">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="28"/>
+    </row>
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="66"/>
+    </row>
+    <row r="114" spans="1:5" ht="45">
+      <c r="A114" s="8"/>
+      <c r="B114" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="67"/>
+    </row>
+    <row r="115" spans="1:5" ht="30">
+      <c r="A115" s="8"/>
+      <c r="B115" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="67"/>
+    </row>
+    <row r="116" spans="1:5" ht="30">
+      <c r="A116" s="8"/>
+      <c r="B116" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="67"/>
+    </row>
+    <row r="117" spans="1:5" ht="16" thickBot="1">
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="68"/>
+    </row>
+    <row r="118" spans="1:5" ht="30">
+      <c r="A118" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="66"/>
+    </row>
+    <row r="119" spans="1:5" ht="30">
+      <c r="A119" s="8"/>
+      <c r="B119" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" s="67"/>
+    </row>
+    <row r="120" spans="1:5" ht="30">
+      <c r="A120" s="8"/>
+      <c r="B120" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="67"/>
+    </row>
+    <row r="121" spans="1:5" ht="16" thickBot="1">
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="68"/>
+    </row>
+    <row r="122" spans="1:5" ht="30">
+      <c r="A122" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="66"/>
+    </row>
+    <row r="123" spans="1:5" ht="30">
+      <c r="A123" s="8"/>
+      <c r="B123" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E123" s="67"/>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" s="8"/>
+      <c r="B124" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="67"/>
+    </row>
+    <row r="125" spans="1:5" ht="45">
+      <c r="A125" s="8"/>
+      <c r="B125" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="67"/>
+    </row>
+    <row r="126" spans="1:5" ht="16" thickBot="1">
+      <c r="A126" s="3"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="68"/>
+    </row>
+    <row r="127" spans="1:5" ht="30">
+      <c r="A127" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="66"/>
+    </row>
+    <row r="128" spans="1:5" ht="30">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" s="67"/>
+    </row>
+    <row r="129" spans="1:5" ht="30">
+      <c r="A129" s="8"/>
+      <c r="B129" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" s="67"/>
+    </row>
+    <row r="130" spans="1:5" ht="16" thickBot="1">
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="68"/>
+    </row>
+    <row r="131" spans="1:5" ht="30">
+      <c r="A131" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" s="35"/>
+      <c r="E131" s="66"/>
+    </row>
+    <row r="132" spans="1:5" ht="31" thickBot="1">
+      <c r="A132" s="8"/>
+      <c r="B132" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="67"/>
+    </row>
+    <row r="133" spans="1:5" ht="17" thickBot="1">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="46" thickBot="1">
+      <c r="A134" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" s="69"/>
+    </row>
+    <row r="135" spans="1:5" ht="31" thickBot="1">
+      <c r="A135" s="3"/>
+      <c r="B135" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E135" s="70"/>
+    </row>
+    <row r="136" spans="1:5" ht="46" thickBot="1">
+      <c r="A136" s="17"/>
+      <c r="B136" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E136" s="69"/>
+    </row>
+    <row r="137" spans="1:5" ht="31" thickBot="1">
+      <c r="A137" s="3"/>
+      <c r="B137" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E137" s="70"/>
+    </row>
+    <row r="138" spans="1:5" ht="31" thickBot="1">
+      <c r="A138" s="3"/>
+      <c r="B138" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="38"/>
+    </row>
+    <row r="139" spans="1:5" ht="31" thickBot="1">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="38"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1">
+      <c r="A140" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" s="69"/>
+    </row>
+    <row r="141" spans="1:5" ht="16" thickBot="1">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="70"/>
+    </row>
+    <row r="142" spans="1:5" ht="31" thickBot="1">
+      <c r="A142" s="3"/>
+      <c r="B142" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142" s="38"/>
+    </row>
+    <row r="143" spans="1:5" ht="31" thickBot="1">
+      <c r="A143" s="3"/>
+      <c r="B143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="38"/>
+    </row>
+    <row r="144" spans="1:5" ht="45">
+      <c r="A144" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E144" s="69"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="8"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="71"/>
+    </row>
+    <row r="146" spans="1:5" ht="30">
+      <c r="A146" s="8"/>
+      <c r="B146" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="71"/>
+    </row>
+    <row r="147" spans="1:5" ht="16" thickBot="1">
+      <c r="A147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="70"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1">
+      <c r="A148" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" s="17"/>
+      <c r="E148" s="69"/>
+    </row>
+    <row r="149" spans="1:5" ht="16" thickBot="1">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="70"/>
+    </row>
+    <row r="150" spans="1:5" ht="45">
+      <c r="A150" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" s="69"/>
+    </row>
+    <row r="151" spans="1:5" ht="30">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" s="71"/>
+    </row>
+    <row r="152" spans="1:5" ht="16" thickBot="1">
+      <c r="A152" s="53"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="70"/>
+    </row>
+    <row r="153" spans="1:5" ht="45">
+      <c r="A153" s="52"/>
+      <c r="B153" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D153" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E153" s="69"/>
+    </row>
+    <row r="154" spans="1:5" ht="16" thickBot="1">
+      <c r="A154" s="53"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="70"/>
+    </row>
+    <row r="155" spans="1:5" ht="17" thickBot="1">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1">
+      <c r="A156" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E156" s="17"/>
+    </row>
+    <row r="157" spans="1:5" ht="16" thickBot="1">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" ht="46" thickBot="1">
+      <c r="A158" s="39"/>
+      <c r="B158" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" s="38"/>
+    </row>
+    <row r="159" spans="1:5" ht="31" thickBot="1">
+      <c r="A159" s="3"/>
+      <c r="B159" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="38"/>
+    </row>
+    <row r="160" spans="1:5" ht="31" thickBot="1">
+      <c r="A160" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E160" s="38"/>
+    </row>
+    <row r="161" spans="1:5" ht="31" thickBot="1">
+      <c r="A161" s="3"/>
+      <c r="B161" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E161" s="38"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1">
+      <c r="A162" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" s="69"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="71"/>
+    </row>
+    <row r="164" spans="1:5" ht="16" thickBot="1">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="70"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1">
+      <c r="A165" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E165" s="69"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="71"/>
+    </row>
+    <row r="167" spans="1:5" ht="16" thickBot="1">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="70"/>
+    </row>
+    <row r="168" spans="1:5" ht="46" thickBot="1">
+      <c r="A168" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E168" s="69"/>
+    </row>
+    <row r="169" spans="1:5" ht="46" thickBot="1">
+      <c r="A169" s="3"/>
+      <c r="B169" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E169" s="70"/>
+    </row>
+    <row r="170" spans="1:5" ht="75">
+      <c r="A170" s="17"/>
+      <c r="B170" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E170" s="69"/>
+    </row>
+    <row r="171" spans="1:5" ht="16" thickBot="1">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="70"/>
+    </row>
+    <row r="172" spans="1:5" ht="46" thickBot="1">
+      <c r="A172" s="17"/>
+      <c r="B172" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E172" s="69"/>
+    </row>
+    <row r="173" spans="1:5" ht="45">
+      <c r="A173" s="8"/>
+      <c r="B173" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="71"/>
+    </row>
+    <row r="174" spans="1:5" ht="16" thickBot="1">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="70"/>
+    </row>
+    <row r="175" spans="1:5" ht="31" thickBot="1">
+      <c r="A175" s="3"/>
+      <c r="B175" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E175" s="38"/>
+    </row>
+    <row r="176" spans="1:5" ht="17" thickBot="1">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" ht="45">
+      <c r="A177" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" s="17"/>
+    </row>
+    <row r="178" spans="1:5" ht="30">
+      <c r="A178" s="8"/>
+      <c r="B178" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" spans="1:5" ht="30">
+      <c r="A179" s="8"/>
+      <c r="B179" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" spans="1:5" ht="31" thickBot="1">
+      <c r="A180" s="3"/>
+      <c r="B180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" ht="30">
+      <c r="A181" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181" s="17"/>
+    </row>
+    <row r="182" spans="1:5" ht="30">
+      <c r="A182" s="8"/>
+      <c r="B182" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" spans="1:5" ht="31" thickBot="1">
+      <c r="A183" s="3"/>
+      <c r="B183" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5" ht="60">
+      <c r="A184" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:5" ht="30">
+      <c r="A185" s="8"/>
+      <c r="B185" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="1:5" ht="30">
+      <c r="A186" s="8"/>
+      <c r="B186" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="1:5" ht="45">
+      <c r="A187" s="8"/>
+      <c r="B187" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D187" s="12"/>
+      <c r="E187" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="16" thickBot="1">
+      <c r="A188" s="3"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+    </row>
+    <row r="189" spans="1:5" ht="30">
+      <c r="A189" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E189" s="17"/>
+    </row>
+    <row r="190" spans="1:5" ht="30">
+      <c r="A190" s="8"/>
+      <c r="B190" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="1:5" ht="31" thickBot="1">
+      <c r="A191" s="3"/>
+      <c r="B191" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" ht="30">
+      <c r="A192" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" s="17"/>
+    </row>
+    <row r="193" spans="1:5" ht="31" thickBot="1">
+      <c r="A193" s="3"/>
+      <c r="B193" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5" ht="17" thickBot="1">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" ht="30">
+      <c r="A195" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E195" s="17"/>
+    </row>
+    <row r="196" spans="1:5" ht="45">
+      <c r="A196" s="8"/>
+      <c r="B196" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" spans="1:5" ht="60">
+      <c r="A197" s="8"/>
+      <c r="B197" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" spans="1:5" ht="30">
+      <c r="A198" s="8"/>
+      <c r="B198" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D198" s="9"/>
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" spans="1:5" ht="16" thickBot="1">
+      <c r="A199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" ht="30">
+      <c r="A200" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E200" s="17"/>
+    </row>
+    <row r="201" spans="1:5" ht="60">
+      <c r="A201" s="8"/>
+      <c r="B201" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="1:5" ht="30">
+      <c r="A202" s="8"/>
+      <c r="B202" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D202" s="9"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="1:5" ht="16" thickBot="1">
+      <c r="A203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" ht="30">
+      <c r="A204" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E204" s="9"/>
+    </row>
+    <row r="205" spans="1:5" ht="60">
+      <c r="A205" s="8"/>
+      <c r="B205" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E205" s="9"/>
+    </row>
+    <row r="206" spans="1:5" ht="30">
+      <c r="A206" s="8"/>
+      <c r="B206" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E206" s="9"/>
+    </row>
+    <row r="207" spans="1:5" ht="45">
+      <c r="A207" s="8"/>
+      <c r="B207" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D207" s="12"/>
+      <c r="E207" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="16" thickBot="1">
+      <c r="A208" s="3"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+    </row>
+    <row r="209" spans="1:5" ht="30">
+      <c r="A209" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E209" s="17"/>
+    </row>
+    <row r="210" spans="1:5" ht="30">
+      <c r="A210" s="8"/>
+      <c r="B210" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D210" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E210" s="8"/>
+    </row>
+    <row r="211" spans="1:5" ht="30">
+      <c r="A211" s="8"/>
+      <c r="B211" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E211" s="8"/>
+    </row>
+    <row r="212" spans="1:5" ht="16" thickBot="1">
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1">
+      <c r="A213" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B213" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="C213" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D213" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E213" s="69"/>
+    </row>
+    <row r="214" spans="1:5" ht="16" thickBot="1">
+      <c r="A214" s="3"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="42"/>
+      <c r="E214" s="70"/>
+    </row>
+    <row r="215" spans="1:5" ht="17" thickBot="1">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" ht="46" thickBot="1">
+      <c r="A216" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B216" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E216" s="69"/>
+    </row>
+    <row r="217" spans="1:5" ht="45">
+      <c r="A217" s="8"/>
+      <c r="B217" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E217" s="71"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="8"/>
+      <c r="B218" s="74"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="71"/>
+    </row>
+    <row r="219" spans="1:5" ht="16" thickBot="1">
+      <c r="A219" s="3"/>
+      <c r="B219" s="42"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="70"/>
+    </row>
+    <row r="220" spans="1:5" ht="46" thickBot="1">
+      <c r="A220" s="17"/>
+      <c r="B220" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E220" s="69"/>
+    </row>
+    <row r="221" spans="1:5" ht="46" thickBot="1">
+      <c r="A221" s="3"/>
+      <c r="B221" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C221" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E221" s="70"/>
+    </row>
+    <row r="222" spans="1:5" ht="30">
+      <c r="A222" s="17"/>
+      <c r="B222" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E222" s="69"/>
+    </row>
+    <row r="223" spans="1:5" ht="31" thickBot="1">
+      <c r="A223" s="3"/>
+      <c r="B223" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C223" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="70"/>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1">
+      <c r="A224" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E224" s="69"/>
+    </row>
+    <row r="225" spans="1:5" ht="16" thickBot="1">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="70"/>
+    </row>
+    <row r="226" spans="1:5" ht="30">
+      <c r="A226" s="17"/>
+      <c r="B226" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E226" s="69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="16" thickBot="1">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="70"/>
+    </row>
+    <row r="228" spans="1:5" ht="31" thickBot="1">
+      <c r="A228" s="42"/>
+      <c r="B228" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E228" s="38"/>
+    </row>
+    <row r="229" spans="1:5" ht="45">
+      <c r="A229" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E229" s="69"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="8"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="71"/>
+    </row>
+    <row r="231" spans="1:5" ht="30">
+      <c r="A231" s="8"/>
+      <c r="B231" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D231" s="8"/>
+      <c r="E231" s="71"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="8"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="71"/>
+    </row>
+    <row r="233" spans="1:5" ht="16" thickBot="1">
+      <c r="A233" s="3"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="70"/>
+    </row>
+    <row r="234" spans="1:5" ht="16" thickBot="1">
+      <c r="A234" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B234" s="4"/>
+      <c r="C234" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D234" s="4"/>
+      <c r="E234" s="38"/>
+    </row>
+    <row r="235" spans="1:5" ht="45">
+      <c r="A235" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E235" s="69"/>
+    </row>
+    <row r="236" spans="1:5" ht="31" thickBot="1">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E236" s="70"/>
+    </row>
+    <row r="237" spans="1:5" ht="31" thickBot="1">
+      <c r="A237" s="75"/>
+      <c r="B237" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E237" s="69"/>
+    </row>
+    <row r="238" spans="1:5" ht="17" thickBot="1">
+      <c r="A238" s="43"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D238" s="28"/>
+      <c r="E238" s="28"/>
+    </row>
+    <row r="239" spans="1:5" ht="31" thickBot="1">
+      <c r="A239" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B239" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C239" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D239" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E239" s="46"/>
+    </row>
+    <row r="240" spans="1:5" ht="46" thickBot="1">
+      <c r="A240" s="44"/>
+      <c r="B240" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D240" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E240" s="46"/>
+    </row>
+    <row r="241" spans="1:5" ht="31" thickBot="1">
+      <c r="A241" s="44"/>
+      <c r="B241" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D241" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E241" s="46"/>
+    </row>
+    <row r="242" spans="1:5" ht="31" thickBot="1">
+      <c r="A242" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B242" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D242" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E242" s="46"/>
+    </row>
+    <row r="243" spans="1:5" ht="31" thickBot="1">
+      <c r="A243" s="44"/>
+      <c r="B243" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D243" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E243" s="46"/>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1">
+      <c r="A244" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B244" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D244" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E244" s="66"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="47"/>
+      <c r="B245" s="47"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="47"/>
+      <c r="E245" s="67"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="47"/>
+      <c r="B246" s="47"/>
+      <c r="C246" s="29"/>
+      <c r="D246" s="47"/>
+      <c r="E246" s="67"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="47"/>
+      <c r="B247" s="47"/>
+      <c r="C247" s="29"/>
+      <c r="D247" s="47"/>
+      <c r="E247" s="67"/>
+    </row>
+    <row r="248" spans="1:5" ht="16" thickBot="1">
+      <c r="A248" s="44"/>
+      <c r="B248" s="44"/>
+      <c r="C248" s="45"/>
+      <c r="D248" s="44"/>
+      <c r="E248" s="68"/>
+    </row>
+    <row r="249" spans="1:5" ht="15" customHeight="1">
+      <c r="A249" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B249" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D249" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E249" s="66"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="47"/>
+      <c r="B250" s="47"/>
+      <c r="C250" s="29"/>
+      <c r="D250" s="47"/>
+      <c r="E250" s="67"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="47"/>
+      <c r="B251" s="47"/>
+      <c r="C251" s="48"/>
+      <c r="D251" s="47"/>
+      <c r="E251" s="67"/>
+    </row>
+    <row r="252" spans="1:5" ht="16" thickBot="1">
+      <c r="A252" s="44"/>
+      <c r="B252" s="44"/>
+      <c r="C252" s="45"/>
+      <c r="D252" s="44"/>
+      <c r="E252" s="68"/>
+    </row>
+    <row r="253" spans="1:5" ht="30">
+      <c r="A253" s="76"/>
+      <c r="B253" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D253" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E253" s="66"/>
+    </row>
+    <row r="254" spans="1:5" ht="16" thickBot="1">
+      <c r="A254" s="44"/>
+      <c r="B254" s="44"/>
+      <c r="C254" s="45"/>
+      <c r="D254" s="44"/>
+      <c r="E254" s="68"/>
+    </row>
+    <row r="255" spans="1:5" ht="46" thickBot="1">
+      <c r="A255" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="B255" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C255" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="D255" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E255" s="66"/>
+    </row>
+    <row r="256" spans="1:5" ht="46" thickBot="1">
+      <c r="A256" s="44"/>
+      <c r="B256" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C256" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D256" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E256" s="68"/>
+    </row>
+    <row r="257" spans="1:5" ht="45">
+      <c r="A257" s="76"/>
+      <c r="B257" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="D257" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E257" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="31" thickBot="1">
+      <c r="A258" s="44"/>
+      <c r="B258" s="44"/>
+      <c r="C258" s="44"/>
+      <c r="D258" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E258" s="78"/>
+    </row>
+    <row r="259" spans="1:5" ht="46" thickBot="1">
+      <c r="A259" s="76"/>
+      <c r="B259" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C259" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D259" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E259" s="66"/>
+    </row>
+    <row r="260" spans="1:5" ht="45">
+      <c r="A260" s="47"/>
+      <c r="B260" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C260" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="D260" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E260" s="67"/>
+    </row>
+    <row r="261" spans="1:5" ht="16" thickBot="1">
+      <c r="A261" s="44"/>
+      <c r="B261" s="44"/>
+      <c r="C261" s="45"/>
+      <c r="D261" s="36"/>
+      <c r="E261" s="68"/>
+    </row>
+    <row r="262" spans="1:5" ht="31" thickBot="1">
+      <c r="A262" s="44"/>
+      <c r="B262" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C262" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D262" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E262" s="46"/>
+    </row>
+    <row r="263" spans="1:5" ht="17" thickBot="1">
+      <c r="A263" s="1"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5" ht="45">
+      <c r="A264" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E264" s="17"/>
+    </row>
+    <row r="265" spans="1:5" ht="30">
+      <c r="A265" s="8"/>
+      <c r="B265" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E265" s="8"/>
+    </row>
+    <row r="266" spans="1:5" ht="30">
+      <c r="A266" s="8"/>
+      <c r="B266" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E266" s="8"/>
+    </row>
+    <row r="267" spans="1:5" ht="30">
+      <c r="A267" s="8"/>
+      <c r="B267" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D267" s="12"/>
+      <c r="E267" s="8"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="8"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="8"/>
+    </row>
+    <row r="269" spans="1:5" ht="16" thickBot="1">
+      <c r="A269" s="3"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="41"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="1:5" ht="30">
+      <c r="A270" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E270" s="17"/>
+    </row>
+    <row r="271" spans="1:5" ht="30">
+      <c r="A271" s="8"/>
+      <c r="B271" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E271" s="8"/>
+    </row>
+    <row r="272" spans="1:5" ht="31" thickBot="1">
+      <c r="A272" s="24"/>
+      <c r="B272" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C272" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D272" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="24"/>
+    </row>
+    <row r="273" spans="1:5" ht="30">
+      <c r="A273" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B273" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D273" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E273" s="29"/>
+    </row>
+    <row r="274" spans="1:5" ht="30">
+      <c r="A274" s="47"/>
+      <c r="B274" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C274" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E274" s="29"/>
+    </row>
+    <row r="275" spans="1:5" ht="30">
+      <c r="A275" s="47"/>
+      <c r="B275" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C275" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D275" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E275" s="29"/>
+    </row>
+    <row r="276" spans="1:5" ht="45">
+      <c r="A276" s="47"/>
+      <c r="B276" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C276" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D276" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E276" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="47"/>
+      <c r="B277" s="29"/>
+      <c r="C277" s="29"/>
+      <c r="D277" s="48"/>
+      <c r="E277" s="29"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="47"/>
+      <c r="B278" s="48"/>
+      <c r="C278" s="29"/>
+      <c r="D278" s="48"/>
+      <c r="E278" s="29"/>
+    </row>
+    <row r="279" spans="1:5" ht="16" thickBot="1">
+      <c r="A279" s="44"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="36"/>
+      <c r="D279" s="36"/>
+      <c r="E279" s="45"/>
+    </row>
+    <row r="280" spans="1:5" ht="15" customHeight="1">
+      <c r="A280" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B280" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C280" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D280" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E280" s="76"/>
+    </row>
+    <row r="281" spans="1:5" ht="30">
+      <c r="A281" s="47"/>
+      <c r="B281" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D281" s="47"/>
+      <c r="E281" s="47"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="47"/>
+      <c r="B282" s="29"/>
+      <c r="C282" s="48"/>
+      <c r="D282" s="47"/>
+      <c r="E282" s="47"/>
+    </row>
+    <row r="283" spans="1:5" ht="16" thickBot="1">
+      <c r="A283" s="44"/>
+      <c r="B283" s="45"/>
+      <c r="C283" s="36"/>
+      <c r="D283" s="44"/>
+      <c r="E283" s="44"/>
+    </row>
+    <row r="284" spans="1:5" ht="30">
+      <c r="A284" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B284" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D284" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E284" s="76"/>
+    </row>
+    <row r="285" spans="1:5" ht="31" thickBot="1">
+      <c r="A285" s="44"/>
+      <c r="B285" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D285" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E285" s="44"/>
+    </row>
+    <row r="286" spans="1:5" ht="17" thickBot="1">
+      <c r="A286" s="50"/>
+      <c r="B286" s="51"/>
+      <c r="C286" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D286" s="51"/>
+      <c r="E286" s="51"/>
+    </row>
+    <row r="287" spans="1:5" ht="30">
+      <c r="A287" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E287" s="17"/>
+    </row>
+    <row r="288" spans="1:5" ht="45">
+      <c r="A288" s="8"/>
+      <c r="B288" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E288" s="8"/>
+    </row>
+    <row r="289" spans="1:5" ht="30">
+      <c r="A289" s="8"/>
+      <c r="B289" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E289" s="8"/>
+    </row>
+    <row r="290" spans="1:5" ht="30">
+      <c r="A290" s="8"/>
+      <c r="B290" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E290" s="8"/>
+    </row>
+    <row r="291" spans="1:5" ht="30">
+      <c r="A291" s="8"/>
+      <c r="B291" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E291" s="8"/>
+    </row>
+    <row r="292" spans="1:5" ht="16" thickBot="1">
+      <c r="A292" s="3"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" ht="30">
+      <c r="A293" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E293" s="17"/>
+    </row>
+    <row r="294" spans="1:5" ht="30">
+      <c r="A294" s="8"/>
+      <c r="B294" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E294" s="8"/>
+    </row>
+    <row r="295" spans="1:5" ht="30">
+      <c r="A295" s="8"/>
+      <c r="B295" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E295" s="8"/>
+    </row>
+    <row r="296" spans="1:5" ht="30">
+      <c r="A296" s="8"/>
+      <c r="B296" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E296" s="8"/>
+    </row>
+    <row r="297" spans="1:5" ht="16" thickBot="1">
+      <c r="A297" s="3"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:5" ht="30">
+      <c r="A298" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D298" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E298" s="9"/>
+    </row>
+    <row r="299" spans="1:5" ht="30">
+      <c r="A299" s="8"/>
+      <c r="B299" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" s="9"/>
+    </row>
+    <row r="300" spans="1:5" ht="30">
+      <c r="A300" s="8"/>
+      <c r="B300" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" s="9"/>
+    </row>
+    <row r="301" spans="1:5" ht="30">
+      <c r="A301" s="8"/>
+      <c r="B301" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="30">
+      <c r="A302" s="8"/>
+      <c r="B302" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D302" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="45">
+      <c r="A303" s="8"/>
+      <c r="B303" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E303" s="12"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="8"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="8"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="9"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="1:5" ht="16" thickBot="1">
+      <c r="A306" s="3"/>
+      <c r="B306" s="10"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="10"/>
+    </row>
+    <row r="307" spans="1:5" ht="30">
+      <c r="A307" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" s="17"/>
+    </row>
+    <row r="308" spans="1:5" ht="30">
+      <c r="A308" s="8"/>
+      <c r="B308" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" s="8"/>
+    </row>
+    <row r="309" spans="1:5" ht="30">
+      <c r="A309" s="8"/>
+      <c r="B309" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D309" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E309" s="8"/>
+    </row>
+    <row r="310" spans="1:5" ht="30">
+      <c r="A310" s="8"/>
+      <c r="B310" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E310" s="8"/>
+    </row>
+    <row r="311" spans="1:5" ht="30">
+      <c r="A311" s="8"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="9"/>
+      <c r="D311" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E311" s="8"/>
+    </row>
+    <row r="312" spans="1:5" ht="16" thickBot="1">
+      <c r="A312" s="3"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" spans="1:5" ht="30">
+      <c r="A313" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E313" s="17"/>
+    </row>
+    <row r="314" spans="1:5" ht="30">
+      <c r="A314" s="8"/>
+      <c r="B314" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E314" s="8"/>
+    </row>
+    <row r="315" spans="1:5" ht="30">
+      <c r="A315" s="8"/>
+      <c r="B315" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E315" s="8"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="8"/>
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="8"/>
+    </row>
+    <row r="317" spans="1:5" ht="30">
+      <c r="A317" s="8"/>
+      <c r="B317" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E317" s="8"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="8"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="8"/>
+    </row>
+    <row r="319" spans="1:5" ht="16" thickBot="1">
+      <c r="A319" s="3"/>
+      <c r="B319" s="41"/>
+      <c r="C319" s="10"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
